--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10234.45900056604</v>
+        <v>-19629.23029379117</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116413</v>
+        <v>25357088.44927505</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15140382.24954452</v>
+        <v>15112024.64750867</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2951366.572308642</v>
+        <v>2849999.856991441</v>
       </c>
     </row>
     <row r="11">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>174.1644748372647</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.000448470603319</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392506</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="W21" t="n">
-        <v>194.556163395115</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.2959597602405</v>
+        <v>7.000448470603319</v>
       </c>
     </row>
     <row r="22">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>7.000448470603319</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="X22" t="n">
-        <v>137.6973304052487</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>333.5152615739075</v>
       </c>
       <c r="H23" t="n">
-        <v>123.9169546588793</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.7558899672006</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>12.68950643510851</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>235.3721011584465</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>227.503865574657</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2649,7 +2651,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H27" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.67279124319197</v>
+        <v>104.4901765374784</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>374.5078541983013</v>
+        <v>109.7290404931423</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>162.197720330655</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>173.8074997534742</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>143.4324547506684</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>171.5578058653736</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3125,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>141.3043135059329</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>307.6923825070321</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>227.3250193537617</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3402,7 +3404,7 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V36" t="n">
-        <v>202.9234074721267</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W36" t="n">
         <v>194.556163395115</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>139.485173022116</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>119.0342313211261</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>121.34815037781</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>5.670512401112388</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H39" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T39" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U39" t="n">
         <v>182.9205141195597</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>161.9744862429602</v>
       </c>
       <c r="C40" t="n">
-        <v>30.69437386122811</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>93.30207051033189</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>125.6566574884774</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T42" t="n">
         <v>140.4611363452985</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.5399420317838348</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.374694886055279</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>148.0710318362825</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.18779416180689</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>136.7309641056443</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.8596299154304</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>139.4744963040047</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1063.029055219359</v>
+        <v>8.663937271758343</v>
       </c>
       <c r="C20" t="n">
-        <v>636.1283252326596</v>
+        <v>8.663937271758343</v>
       </c>
       <c r="D20" t="n">
-        <v>212.8357044176598</v>
+        <v>8.663937271758343</v>
       </c>
       <c r="E20" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082674</v>
+        <v>8.504177865060798</v>
       </c>
       <c r="K20" t="n">
-        <v>36.91199246082674</v>
+        <v>8.504177865060798</v>
       </c>
       <c r="L20" t="n">
-        <v>493.6978991635576</v>
+        <v>8.504177865060798</v>
       </c>
       <c r="M20" t="n">
-        <v>493.6978991635576</v>
+        <v>8.504177865060798</v>
       </c>
       <c r="N20" t="n">
-        <v>814.4714747539724</v>
+        <v>8.504177865060798</v>
       </c>
       <c r="O20" t="n">
-        <v>1271.257381456703</v>
+        <v>8.504177865060798</v>
       </c>
       <c r="P20" t="n">
-        <v>1728.043288159434</v>
+        <v>16.37252934768714</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>23.92296763909626</v>
       </c>
       <c r="R20" t="n">
-        <v>1845.599623041337</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="S20" t="n">
-        <v>1741.232328914477</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="T20" t="n">
-        <v>1741.232328914477</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="U20" t="n">
-        <v>1482.877419510889</v>
+        <v>23.76320823239872</v>
       </c>
       <c r="V20" t="n">
-        <v>1482.877419510889</v>
+        <v>16.69204816108223</v>
       </c>
       <c r="W20" t="n">
-        <v>1482.877419510889</v>
+        <v>8.663937271758343</v>
       </c>
       <c r="X20" t="n">
-        <v>1482.877419510889</v>
+        <v>8.663937271758343</v>
       </c>
       <c r="Y20" t="n">
-        <v>1482.877419510889</v>
+        <v>8.663937271758343</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="D21" t="n">
-        <v>382.689621525072</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980092</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809131</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851715</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082674</v>
+        <v>8.082469344346293</v>
       </c>
       <c r="J21" t="n">
-        <v>308.6094817404178</v>
+        <v>8.082469344346293</v>
       </c>
       <c r="K21" t="n">
-        <v>308.6094817404178</v>
+        <v>8.082469344346293</v>
       </c>
       <c r="L21" t="n">
-        <v>475.2419029331441</v>
+        <v>15.95082082697264</v>
       </c>
       <c r="M21" t="n">
-        <v>932.027809635875</v>
+        <v>15.95082082697264</v>
       </c>
       <c r="N21" t="n">
-        <v>1388.813716338606</v>
+        <v>15.95082082697264</v>
       </c>
       <c r="O21" t="n">
-        <v>1845.599623041337</v>
+        <v>23.81917230959898</v>
       </c>
       <c r="P21" t="n">
-        <v>1845.599623041337</v>
+        <v>31.68752379222533</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>31.68752379222533</v>
       </c>
       <c r="R21" t="n">
-        <v>1845.599623041337</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="S21" t="n">
-        <v>1764.275375602591</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="U21" t="n">
-        <v>1437.627243819906</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="V21" t="n">
-        <v>1232.654104959172</v>
+        <v>23.76320823239872</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>15.73509734307483</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>7.706986453750936</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>0.6358263824344522</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>876.528278233494</v>
+        <v>16.69204816108223</v>
       </c>
       <c r="C22" t="n">
-        <v>704.55571511241</v>
+        <v>8.663937271758343</v>
       </c>
       <c r="D22" t="n">
-        <v>541.2389422391807</v>
+        <v>8.663937271758343</v>
       </c>
       <c r="E22" t="n">
-        <v>375.0307363920342</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="F22" t="n">
-        <v>203.1689621665946</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="G22" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>0.6358263824344522</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>8.186264673843574</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>16.05461615646992</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>23.92296763909626</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="Q22" t="n">
-        <v>1845.599623041337</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="S22" t="n">
-        <v>1675.464575560472</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="T22" t="n">
-        <v>1432.125227786372</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="U22" t="n">
-        <v>1432.125227786372</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="V22" t="n">
-        <v>1432.125227786372</v>
+        <v>31.79131912172261</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.125227786372</v>
+        <v>23.76320823239872</v>
       </c>
       <c r="X22" t="n">
-        <v>1293.037015255818</v>
+        <v>23.76320823239872</v>
       </c>
       <c r="Y22" t="n">
-        <v>1066.69424694556</v>
+        <v>23.76320823239872</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>588.9813635171017</v>
+        <v>373.7960950607334</v>
       </c>
       <c r="C23" t="n">
-        <v>162.0806335304018</v>
+        <v>373.7960950607334</v>
       </c>
       <c r="D23" t="n">
-        <v>162.0806335304018</v>
+        <v>373.7960950607334</v>
       </c>
       <c r="E23" t="n">
-        <v>162.0806335304018</v>
+        <v>373.7960950607334</v>
       </c>
       <c r="F23" t="n">
-        <v>162.0806335304018</v>
+        <v>373.7960950607334</v>
       </c>
       <c r="G23" t="n">
-        <v>162.0806335304018</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M23" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N23" t="n">
-        <v>1271.257381456703</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O23" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P23" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
         <v>1728.043288159434</v>
@@ -6017,22 +6019,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U23" t="n">
-        <v>1366.319142682382</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V23" t="n">
-        <v>1008.829727808632</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="W23" t="n">
-        <v>1008.829727808632</v>
+        <v>1190.853363938096</v>
       </c>
       <c r="X23" t="n">
-        <v>1008.829727808632</v>
+        <v>779.133365105843</v>
       </c>
       <c r="Y23" t="n">
-        <v>1008.829727808632</v>
+        <v>373.7960950607334</v>
       </c>
     </row>
     <row r="24">
@@ -6048,43 +6050,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J24" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K24" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3953884431487</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.18129514588</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N24" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O24" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P24" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q24" t="n">
         <v>1763.580312956633</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>876.528278233494</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="C25" t="n">
-        <v>704.55571511241</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="D25" t="n">
-        <v>541.2389422391807</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E25" t="n">
         <v>375.0307363920342</v>
@@ -6136,34 +6138,34 @@
         <v>203.1689621665946</v>
       </c>
       <c r="G25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L25" t="n">
-        <v>430.8949765933859</v>
+        <v>449.0926419794055</v>
       </c>
       <c r="M25" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P25" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
@@ -6172,25 +6174,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>1845.599623041337</v>
+        <v>1832.78193977355</v>
       </c>
       <c r="T25" t="n">
-        <v>1845.599623041337</v>
+        <v>1589.44259199945</v>
       </c>
       <c r="U25" t="n">
-        <v>1565.415174541641</v>
+        <v>1309.258143499754</v>
       </c>
       <c r="V25" t="n">
-        <v>1565.415174541641</v>
+        <v>1309.258143499754</v>
       </c>
       <c r="W25" t="n">
-        <v>1290.562770714154</v>
+        <v>1309.258143499754</v>
       </c>
       <c r="X25" t="n">
-        <v>1047.998874159959</v>
+        <v>1066.69424694556</v>
       </c>
       <c r="Y25" t="n">
-        <v>1047.998874159959</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="C26" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D26" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L26" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M26" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N26" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O26" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P26" t="n">
         <v>1271.957808655251</v>
@@ -6257,19 +6259,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U26" t="n">
-        <v>1607.850025911593</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V26" t="n">
-        <v>1250.360611037842</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W26" t="n">
-        <v>853.9692613381892</v>
+        <v>1258.308323748741</v>
       </c>
       <c r="X26" t="n">
-        <v>442.2492625059364</v>
+        <v>846.5883249164879</v>
       </c>
       <c r="Y26" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C27" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H27" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K27" t="n">
-        <v>475.2419029331441</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L27" t="n">
-        <v>475.2419029331441</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M27" t="n">
-        <v>475.2419029331441</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N27" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O27" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P27" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6333,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6342,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>876.528278233494</v>
+        <v>200.228765334056</v>
       </c>
       <c r="C28" t="n">
-        <v>704.55571511241</v>
+        <v>200.228765334056</v>
       </c>
       <c r="D28" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E28" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F28" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L28" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M28" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N28" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O28" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P28" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.125227786372</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U28" t="n">
-        <v>1432.125227786372</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.125227786372</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W28" t="n">
-        <v>1157.272823958885</v>
+        <v>548.3382947543907</v>
       </c>
       <c r="X28" t="n">
-        <v>1157.272823958885</v>
+        <v>305.7743982001958</v>
       </c>
       <c r="Y28" t="n">
-        <v>1066.69424694556</v>
+        <v>200.228765334056</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>842.1034842639926</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C29" t="n">
-        <v>415.2027542772927</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="D29" t="n">
-        <v>415.2027542772927</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="E29" t="n">
-        <v>415.2027542772927</v>
+        <v>572.8735889109643</v>
       </c>
       <c r="F29" t="n">
-        <v>415.2027542772927</v>
+        <v>147.7494071003645</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K29" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L29" t="n">
-        <v>1313.087264683184</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M29" t="n">
-        <v>1728.043288159434</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N29" t="n">
-        <v>1728.043288159434</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O29" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P29" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q29" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C30" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H30" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J30" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>316.0561247023296</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>475.2419029331441</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M30" t="n">
-        <v>475.2419029331441</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N30" t="n">
-        <v>932.027809635875</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O30" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P30" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q30" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6570,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6579,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.9377937795242</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="C31" t="n">
-        <v>346.9652306584402</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="D31" t="n">
-        <v>346.9652306584402</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E31" t="n">
-        <v>346.9652306584402</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F31" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G31" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P31" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.425962247645</v>
+        <v>1681.763541899261</v>
       </c>
       <c r="T31" t="n">
-        <v>1628.425962247645</v>
+        <v>1438.424194125161</v>
       </c>
       <c r="U31" t="n">
-        <v>1628.425962247645</v>
+        <v>1158.239745625465</v>
       </c>
       <c r="V31" t="n">
-        <v>1452.86283118353</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="W31" t="n">
-        <v>1178.010427356043</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="X31" t="n">
-        <v>935.4465308018478</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.1037624915898</v>
+        <v>876.5282782334939</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>608.6939898724443</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C32" t="n">
-        <v>181.7932598857444</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="L32" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M32" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N32" t="n">
-        <v>1271.257381456703</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6725,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V32" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W32" t="n">
-        <v>1845.599623041337</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X32" t="n">
-        <v>1433.879624209084</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="Y32" t="n">
-        <v>1028.542354163974</v>
+        <v>334.7803709867919</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J33" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M33" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N33" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O33" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P33" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6807,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6816,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.6436222647994</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C34" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D34" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E34" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F34" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G34" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6883,25 +6885,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T34" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U34" t="n">
-        <v>1395.280127060776</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V34" t="n">
-        <v>1113.568659668805</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W34" t="n">
-        <v>838.7162558413179</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X34" t="n">
-        <v>596.152359287123</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y34" t="n">
-        <v>369.809590976865</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>460.2046132758265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C35" t="n">
-        <v>460.2046132758265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="L35" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M35" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N35" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O35" t="n">
         <v>1271.957808655251</v>
@@ -6968,19 +6970,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U35" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1276.44432726701</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W35" t="n">
-        <v>880.0529775673565</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X35" t="n">
-        <v>880.0529775673565</v>
+        <v>862.0976267974665</v>
       </c>
       <c r="Y35" t="n">
-        <v>880.0529775673565</v>
+        <v>456.7603567523568</v>
       </c>
     </row>
     <row r="36">
@@ -6996,46 +6998,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J36" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>501.1445421254695</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L36" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M36" t="n">
-        <v>1306.794406253903</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N36" t="n">
-        <v>1306.794406253903</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O36" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7044,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>857.0077738521103</v>
+        <v>349.7786697456642</v>
       </c>
       <c r="C37" t="n">
-        <v>685.0352107310263</v>
+        <v>177.8061066245802</v>
       </c>
       <c r="D37" t="n">
-        <v>685.0352107310263</v>
+        <v>177.8061066245802</v>
       </c>
       <c r="E37" t="n">
-        <v>518.8270048838798</v>
+        <v>177.8061066245802</v>
       </c>
       <c r="F37" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G37" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6013137552475</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M37" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O37" t="n">
-        <v>1515.706748281297</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P37" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U37" t="n">
-        <v>1675.464575560472</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V37" t="n">
-        <v>1393.753108168501</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W37" t="n">
-        <v>1393.753108168501</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X37" t="n">
-        <v>1273.516510874434</v>
+        <v>766.2874067679878</v>
       </c>
       <c r="Y37" t="n">
-        <v>1047.173742564176</v>
+        <v>539.9446384577299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1228.282702386317</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C38" t="n">
-        <v>801.3819723996171</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D38" t="n">
-        <v>801.3819723996171</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E38" t="n">
-        <v>375.4050325474747</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F38" t="n">
-        <v>375.4050325474747</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G38" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H38" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>358.3859952497895</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="L38" t="n">
-        <v>815.1719019525203</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M38" t="n">
-        <v>815.1719019525203</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N38" t="n">
-        <v>815.1719019525203</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O38" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P38" t="n">
         <v>1271.957808655251</v>
@@ -7202,22 +7204,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T38" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U38" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V38" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W38" t="n">
-        <v>1228.282702386317</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X38" t="n">
-        <v>1228.282702386317</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y38" t="n">
-        <v>1228.282702386317</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="39">
@@ -7233,46 +7235,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K39" t="n">
-        <v>772.8420314050605</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L39" t="n">
-        <v>1229.627938107791</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M39" t="n">
-        <v>1306.794406253903</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N39" t="n">
-        <v>1306.794406253903</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O39" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P39" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>405.9863905750573</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C40" t="n">
-        <v>374.9819725334128</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D40" t="n">
-        <v>374.9819725334128</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7737666862663</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F40" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G40" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P40" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7357,25 +7359,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U40" t="n">
-        <v>1395.280127060776</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V40" t="n">
-        <v>1113.568659668805</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W40" t="n">
-        <v>838.7162558413179</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="X40" t="n">
-        <v>596.152359287123</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="Y40" t="n">
-        <v>596.152359287123</v>
+        <v>1283.70370714967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1014.031259917554</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C41" t="n">
-        <v>587.1305299308542</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D41" t="n">
-        <v>163.8379091158545</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E41" t="n">
-        <v>163.8379091158545</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
@@ -7418,16 +7420,16 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M41" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N41" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O41" t="n">
         <v>856.3013579804531</v>
       </c>
       <c r="P41" t="n">
-        <v>1271.957808655251</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q41" t="n">
         <v>1728.043288159434</v>
@@ -7442,19 +7444,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="W41" t="n">
-        <v>1845.599623041337</v>
+        <v>833.3639490643452</v>
       </c>
       <c r="X41" t="n">
-        <v>1433.879624209084</v>
+        <v>833.3639490643452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1433.879624209084</v>
+        <v>833.3639490643452</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J42" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K42" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>772.8420314050605</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M42" t="n">
-        <v>850.0084995511718</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N42" t="n">
-        <v>1306.794406253903</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O42" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P42" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.093114985063</v>
+        <v>380.7463298073503</v>
       </c>
       <c r="C43" t="n">
-        <v>948.1205518639796</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="D43" t="n">
-        <v>784.8037789907503</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E43" t="n">
-        <v>618.5955731436038</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F43" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G43" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H43" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K43" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L43" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N43" t="n">
-        <v>1444.297549031529</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P43" t="n">
         <v>1845.599623041337</v>
@@ -7591,28 +7593,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T43" t="n">
-        <v>1555.22166195441</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U43" t="n">
-        <v>1555.22166195441</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V43" t="n">
-        <v>1555.22166195441</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W43" t="n">
-        <v>1555.22166195441</v>
+        <v>1039.818963383869</v>
       </c>
       <c r="X43" t="n">
-        <v>1312.657765400215</v>
+        <v>797.255066829674</v>
       </c>
       <c r="Y43" t="n">
-        <v>1310.259083697129</v>
+        <v>570.912298519416</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>588.4348144731205</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>588.4348144731205</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>588.4348144731205</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>588.4348144731205</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>366.7061291250302</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>598.9981372303106</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>984.8261641727736</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>588.4348144731205</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>588.4348144731205</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>588.4348144731205</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>593.4367873432377</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>475.9308838607425</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>173.7431613318689</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1025.534031643345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>862.0566854100081</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>722.3637967633005</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1088.137999643809</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1504.646736666132</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1278.303968355874</v>
       </c>
     </row>
   </sheetData>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>37.36778926601718</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>361.2933355520367</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>498.9752675705655</v>
+        <v>45.52319159066195</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>43.75137994945574</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>42.98047967522712</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>190.8306636765793</v>
+        <v>30.46291649466021</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>31.11971950265287</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>29.71867098525932</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>23.77776316131311</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,22 +9561,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>29.54546524055892</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>30.52326967191647</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>28.69673075603104</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>30.4470172788551</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
         <v>24.61956276478495</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>499.7119481929572</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M23" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345442</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>106.8108172115445</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q24" t="n">
         <v>484.1469440493127</v>
@@ -9793,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>271.0481665010504</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
@@ -9890,7 +9892,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705655</v>
+        <v>457.4303624918454</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>190.7148107956832</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345442</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q27" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,7 +10035,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10042,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>84.64530730648401</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>456.5787613602907</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>480.8559469023526</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>183.3088020988907</v>
+        <v>100.4610141345442</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O30" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10212,7 +10214,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10276,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>228.5874162576999</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764234</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
-        <v>456.4271212953049</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O33" t="n">
-        <v>108.6396787202253</v>
+        <v>101.1178171425369</v>
       </c>
       <c r="P33" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>484.1469440493127</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.327324507274</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10519,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>64.10934918660844</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764234</v>
       </c>
       <c r="L35" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
-        <v>457.1346235160602</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
@@ -10662,28 +10664,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>375.4846162958658</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425369</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10744,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10762,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>360.4858157331555</v>
+        <v>455.6196014764234</v>
       </c>
       <c r="L38" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10835,10 +10837,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>101.0427079326425</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q39" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10990,7 +10992,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11066,19 +11068,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P41" t="n">
-        <v>457.4303624918456</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>455.2721730654567</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11139,22 +11141,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>101.0427079326424</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425368</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11233,7 +11235,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>24.61956276478495</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>70.37539003541903</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>45.34488222711981</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>247.5526956163563</v>
+        <v>413.7693406731904</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>247.8235305291212</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>346.9140722544097</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>384.4796064222259</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>194.9755776916957</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>186.6083336146843</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>153.8947429905731</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>131.2955112896372</v>
       </c>
     </row>
     <row r="22">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.2638605543417</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>162.3050077094425</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>156.5982940082443</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24175,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -24187,13 +24189,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>264.1560500087814</v>
       </c>
       <c r="X22" t="n">
-        <v>102.4409271834042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24218,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>66.7804102125383</v>
       </c>
       <c r="H23" t="n">
-        <v>170.9727400818262</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24257,22 +24259,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.50841905774436</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>155.744190570948</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24497,13 +24499,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>20.39925915110533</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>164.9235706279996</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>134.4065493839634</v>
+        <v>119.589164089677</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.78781758814455</v>
+        <v>290.5666312933035</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.235976675401531</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>105.0868529645772</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>275.6272398561813</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -24932,7 +24934,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>236.0449929785566</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>28.94852398394025</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,7 +25159,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25208,19 +25210,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>46.22213821798096</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>180.2777794901685</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,16 +25320,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>30.65798346106922</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>121.1040262675268</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>301.2835723090229</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6251593853335</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -25451,10 +25453,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>26.28982278198481</v>
       </c>
       <c r="C40" t="n">
-        <v>139.558463628645</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>322.3478101382829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>295.2162825040163</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25682,16 +25684,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5639377574283</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.7046457411001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,16 +25876,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>272.8019081562112</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26086,10 +26088,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>100.6637612846482</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>467011.9533474444</v>
+        <v>67866.07939016857</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>467011.9533474445</v>
+        <v>467011.9533474444</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>467011.9533474444</v>
+        <v>467011.9533474445</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>467011.9533474445</v>
+        <v>467011.9533474444</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>467011.9533474446</v>
+        <v>467011.9533474444</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>467011.9533474444</v>
+        <v>467011.9533474445</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019948</v>
+        <v>431594.431609436</v>
       </c>
     </row>
   </sheetData>
@@ -26326,10 +26328,10 @@
         <v>14726.63598391922</v>
       </c>
       <c r="G2" t="n">
-        <v>14726.63598391922</v>
+        <v>14726.63598391923</v>
       </c>
       <c r="H2" t="n">
-        <v>112762.0272804592</v>
+        <v>16415.34157912049</v>
       </c>
       <c r="I2" t="n">
         <v>112762.0272804593</v>
@@ -26350,10 +26352,10 @@
         <v>112762.0272804593</v>
       </c>
       <c r="O2" t="n">
-        <v>112762.0272804593</v>
+        <v>112762.0272804592</v>
       </c>
       <c r="P2" t="n">
-        <v>14726.63598391922</v>
+        <v>115326.9619906378</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>2144.396005228214</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>120582.4294966519</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>286362.9930027069</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="C4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="D4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="E4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="F4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="G4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="H4" t="n">
+        <v>7683.385572696362</v>
+      </c>
+      <c r="I4" t="n">
         <v>53951.29027979783</v>
-      </c>
-      <c r="I4" t="n">
-        <v>53951.29027979782</v>
       </c>
       <c r="J4" t="n">
         <v>53951.29027979783</v>
       </c>
       <c r="K4" t="n">
-        <v>53951.29027979783</v>
+        <v>53951.29027979782</v>
       </c>
       <c r="L4" t="n">
         <v>53951.29027979782</v>
       </c>
       <c r="M4" t="n">
-        <v>53951.29027979783</v>
+        <v>53951.29027979782</v>
       </c>
       <c r="N4" t="n">
-        <v>53951.29027979783</v>
+        <v>53951.29027979782</v>
       </c>
       <c r="O4" t="n">
         <v>53951.29027979783</v>
       </c>
       <c r="P4" t="n">
-        <v>6872.430125828972</v>
+        <v>9122.115965165323</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022832</v>
+        <v>483.2280506501836</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>36949.30081304155</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-25773.39414190975</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.20585809025</v>
+        <v>7854.205858090251</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090252</v>
+        <v>7854.205858090251</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090252</v>
+        <v>7854.205858090253</v>
       </c>
       <c r="H6" t="n">
-        <v>-93732.22444285694</v>
+        <v>6104.331950545733</v>
       </c>
       <c r="I6" t="n">
-        <v>30757.62273043317</v>
+        <v>-89824.80676621875</v>
       </c>
       <c r="J6" t="n">
-        <v>30757.62273043312</v>
+        <v>30757.62273043313</v>
       </c>
       <c r="K6" t="n">
-        <v>30757.62273043315</v>
+        <v>30757.62273043313</v>
       </c>
       <c r="L6" t="n">
-        <v>30757.62273043317</v>
+        <v>30757.62273043313</v>
       </c>
       <c r="M6" t="n">
-        <v>30757.62273043315</v>
+        <v>30757.62273043316</v>
       </c>
       <c r="N6" t="n">
-        <v>30757.62273043315</v>
+        <v>30757.62273043314</v>
       </c>
       <c r="O6" t="n">
-        <v>30757.62273043313</v>
+        <v>30757.6227304331</v>
       </c>
       <c r="P6" t="n">
-        <v>7854.205858090247</v>
+        <v>-217107.447790276</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>430.248375846946</v>
       </c>
     </row>
     <row r="4">
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>453.4520759799035</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>430.248375846946</v>
       </c>
     </row>
     <row r="4">
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>7.947829780430652</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.801178249406</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1383713369558016</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>121.6192253234244</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>109.6639630765298</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>461.3999057603342</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>7.626705344857696</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>168.3155769623498</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3999057603342</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1048437671689706</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>7.626705344857699</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>7.947829780430652</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L23" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M23" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L24" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>85.46778899800287</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q24" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36513,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>395.137166636617</v>
+        <v>248.4727266095646</v>
       </c>
       <c r="N25" t="n">
         <v>381.3045564404402</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L26" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>168.3155769623498</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36762,7 +36764,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>381.3045564404402</v>
+        <v>63.89640633088362</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>419.1474984608589</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L30" t="n">
-        <v>160.7937153846611</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
         <v>228.8157587937749</v>
@@ -36996,7 +36998,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>206.0119763662141</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N32" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O33" t="n">
-        <v>85.46778899800312</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="P33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37239,13 +37241,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O34" t="n">
-        <v>359.0183117977405</v>
+        <v>41.61016168818399</v>
       </c>
       <c r="P34" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N35" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>324.7212149383462</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="L38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37710,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,19 +37788,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P41" t="n">
-        <v>419.8550006816143</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37859,25 +37861,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>77.94592742031439</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37953,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>225.3229807893105</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>144.3886676590584</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19629.23029379117</v>
+        <v>-29659.50435592269</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25357088.44927505</v>
+        <v>24728256.75116414</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15112024.64750867</v>
+        <v>15140382.24954453</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2849999.856991441</v>
+        <v>2864923.565521393</v>
       </c>
     </row>
     <row r="11">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.000448470603319</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.000448470603319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.000448470603319</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>333.5152615739075</v>
+        <v>240.3335245070013</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>158.3254826634486</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.68950643510851</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2535,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>156.2539288263506</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>227.503865574657</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H27" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>78.00023445875244</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.4901765374784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>109.7290404931423</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>374.4652556245521</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.06190643679156</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>162.197720330655</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>141.3535193811976</v>
       </c>
       <c r="X32" t="n">
-        <v>171.5578058653736</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>28.39359121538979</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.35388435743938</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>227.3250193537617</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>86.95320875739024</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.485173022116</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>121.34815037781</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>371.0980402400663</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H39" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.9744862429602</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>9.149555444440267</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.30207051033189</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.615087627943493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>140.5366167982269</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0.5399420317838348</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>65.16360326142079</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>148.0710318362825</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>211.1448086517629</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.632988972596</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>92.18779416180689</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>43.90453113913449</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.32136466518995</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>136.7309641056443</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>182.8596299154304</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.4602252892499</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>75.43872475250879</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9126128011615</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>139.4744963040047</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>145.4024419360287</v>
       </c>
     </row>
   </sheetData>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>8.504177865060798</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>8.504177865060798</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>8.504177865060798</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>8.504177865060798</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8.504177865060798</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.504177865060798</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>16.37252934768714</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.92296763909626</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>23.76320823239872</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>16.69204816108223</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.082469344346293</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8.082469344346293</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.082469344346293</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.95082082697264</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>15.95082082697264</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>15.95082082697264</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>23.81917230959898</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>31.68752379222533</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.68752379222533</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>23.76320823239872</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>15.73509734307483</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>7.706986453750936</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.69204816108223</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>8.663937271758343</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6358263824344522</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>8.186264673843574</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>16.05461615646992</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>23.92296763909626</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>31.79131912172261</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>23.76320823239872</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>23.76320823239872</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>23.76320823239872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>373.7960950607334</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="C23" t="n">
-        <v>373.7960950607334</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="D23" t="n">
-        <v>373.7960950607334</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="E23" t="n">
-        <v>373.7960950607334</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="F23" t="n">
-        <v>373.7960950607334</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
         <v>399.5154512777223</v>
@@ -5995,22 +5995,22 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="M23" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N23" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O23" t="n">
-        <v>1271.957808655251</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P23" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q23" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
@@ -6019,22 +6019,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U23" t="n">
-        <v>1587.244713637749</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V23" t="n">
-        <v>1587.244713637749</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W23" t="n">
-        <v>1190.853363938096</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="X23" t="n">
-        <v>779.133365105843</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="Y23" t="n">
-        <v>373.7960950607334</v>
+        <v>612.4383781089787</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I24" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J24" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K24" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M24" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N24" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O24" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P24" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q24" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6098,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6107,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>876.5282782334939</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="C25" t="n">
-        <v>704.5557151124099</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D25" t="n">
-        <v>541.2389422391806</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E25" t="n">
-        <v>375.0307363920342</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F25" t="n">
-        <v>203.1689621665946</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G25" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L25" t="n">
-        <v>449.0926419794055</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M25" t="n">
-        <v>695.0806413228745</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N25" t="n">
-        <v>1072.57215219891</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O25" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P25" t="n">
         <v>1718.599492800575</v>
@@ -6174,25 +6174,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>1832.78193977355</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>1589.44259199945</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U25" t="n">
-        <v>1309.258143499754</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V25" t="n">
-        <v>1309.258143499754</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W25" t="n">
-        <v>1309.258143499754</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X25" t="n">
-        <v>1066.69424694556</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y25" t="n">
-        <v>1066.69424694556</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>441.2510548713781</v>
+        <v>656.5418450438035</v>
       </c>
       <c r="C26" t="n">
-        <v>441.2510548713781</v>
+        <v>229.6411150571036</v>
       </c>
       <c r="D26" t="n">
-        <v>441.2510548713781</v>
+        <v>229.6411150571036</v>
       </c>
       <c r="E26" t="n">
-        <v>441.2510548713781</v>
+        <v>229.6411150571036</v>
       </c>
       <c r="F26" t="n">
-        <v>441.2510548713781</v>
+        <v>229.6411150571036</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082673</v>
+        <v>229.6411150571036</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M26" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N26" t="n">
-        <v>856.3013579804531</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="O26" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P26" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q26" t="n">
         <v>1728.043288159434</v>
@@ -6265,13 +6265,13 @@
         <v>1488.110208167586</v>
       </c>
       <c r="W26" t="n">
-        <v>1258.308323748741</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X26" t="n">
-        <v>846.5883249164879</v>
+        <v>1076.390209335334</v>
       </c>
       <c r="Y26" t="n">
-        <v>441.2510548713781</v>
+        <v>1076.390209335334</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K27" t="n">
-        <v>772.8420314050604</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L27" t="n">
-        <v>850.0084995511719</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M27" t="n">
-        <v>850.0084995511719</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N27" t="n">
-        <v>850.0084995511719</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O27" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P27" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>200.228765334056</v>
+        <v>782.0231349124776</v>
       </c>
       <c r="C28" t="n">
-        <v>200.228765334056</v>
+        <v>610.0505717913936</v>
       </c>
       <c r="D28" t="n">
-        <v>36.91199246082673</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="E28" t="n">
-        <v>36.91199246082673</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F28" t="n">
-        <v>36.91199246082673</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G28" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K28" t="n">
         <v>263.4395936666639</v>
       </c>
       <c r="L28" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M28" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
         <v>1718.599492800575</v>
@@ -6417,19 +6417,19 @@
         <v>1385.086614473545</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.902165973849</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1906985818778</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W28" t="n">
-        <v>548.3382947543907</v>
+        <v>1024.587031466672</v>
       </c>
       <c r="X28" t="n">
-        <v>305.7743982001958</v>
+        <v>782.0231349124776</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.228765334056</v>
+        <v>782.0231349124776</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1425.751258749807</v>
+        <v>888.9369042581264</v>
       </c>
       <c r="C29" t="n">
-        <v>998.8505287631067</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="D29" t="n">
-        <v>998.8505287631067</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="E29" t="n">
-        <v>572.8735889109643</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F29" t="n">
-        <v>147.7494071003645</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K29" t="n">
-        <v>36.91199246082673</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L29" t="n">
-        <v>36.91199246082673</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M29" t="n">
-        <v>493.6978991635576</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N29" t="n">
-        <v>950.4838058662883</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O29" t="n">
         <v>1389.514143537154</v>
@@ -6493,22 +6493,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>1267.18463721222</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.599623041337</v>
+        <v>888.9369042581264</v>
       </c>
       <c r="X29" t="n">
-        <v>1845.599623041337</v>
+        <v>888.9369042581264</v>
       </c>
       <c r="Y29" t="n">
-        <v>1845.599623041337</v>
+        <v>888.9369042581264</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C30" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J30" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K30" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="L30" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="M30" t="n">
         <v>772.8420314050604</v>
       </c>
-      <c r="L30" t="n">
-        <v>850.0084995511719</v>
-      </c>
-      <c r="M30" t="n">
-        <v>850.0084995511719</v>
-      </c>
       <c r="N30" t="n">
-        <v>1306.794406253903</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O30" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P30" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6572,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6581,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>876.5282782334939</v>
+        <v>740.7640869365612</v>
       </c>
       <c r="C31" t="n">
-        <v>704.5557151124099</v>
+        <v>568.7915238154771</v>
       </c>
       <c r="D31" t="n">
-        <v>541.2389422391806</v>
+        <v>568.7915238154771</v>
       </c>
       <c r="E31" t="n">
-        <v>375.0307363920342</v>
+        <v>402.5833179683307</v>
       </c>
       <c r="F31" t="n">
-        <v>203.1689621665946</v>
+        <v>402.5833179683307</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082673</v>
+        <v>236.3263482625628</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082673</v>
+        <v>92.53007977071721</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>320.9309218908219</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="L31" t="n">
-        <v>675.6202431852428</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M31" t="n">
-        <v>695.0806413228745</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P31" t="n">
         <v>1718.599492800575</v>
@@ -6648,25 +6648,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1681.763541899261</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T31" t="n">
-        <v>1438.424194125161</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U31" t="n">
-        <v>1158.239745625465</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="V31" t="n">
-        <v>876.5282782334939</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="W31" t="n">
-        <v>876.5282782334939</v>
+        <v>1157.272823958885</v>
       </c>
       <c r="X31" t="n">
-        <v>876.5282782334939</v>
+        <v>1157.272823958885</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.5282782334939</v>
+        <v>930.9300556486269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>334.7803709867919</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C32" t="n">
         <v>334.7803709867919</v>
@@ -6694,28 +6694,28 @@
         <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L32" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M32" t="n">
-        <v>1271.957808655251</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N32" t="n">
-        <v>1271.957808655251</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O32" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P32" t="n">
         <v>1271.957808655251</v>
@@ -6733,19 +6733,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1261.951848555522</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V32" t="n">
-        <v>904.4624336817719</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W32" t="n">
-        <v>508.0710839821188</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X32" t="n">
-        <v>334.7803709867919</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y32" t="n">
-        <v>334.7803709867919</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C33" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273857</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J33" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K33" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L33" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M33" t="n">
-        <v>772.8420314050604</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N33" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O33" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P33" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.32454672534</v>
+        <v>877.032378771316</v>
       </c>
       <c r="C34" t="n">
         <v>848.3519836042556</v>
@@ -6852,58 +6852,58 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.806220807371</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O34" t="n">
-        <v>1428.000280878673</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P34" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U34" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.599623041337</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W34" t="n">
-        <v>1679.397180301858</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.833283747663</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.490515437405</v>
+        <v>877.032378771316</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.91199246082673</v>
+        <v>903.0486561146067</v>
       </c>
       <c r="C35" t="n">
-        <v>36.91199246082673</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082673</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082673</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082673</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L35" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M35" t="n">
-        <v>1271.957808655251</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N35" t="n">
-        <v>1271.957808655251</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O35" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P35" t="n">
         <v>1271.957808655251</v>
@@ -6964,25 +6964,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1787.666406518671</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1566.740835563304</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1308.385926159716</v>
       </c>
       <c r="V35" t="n">
-        <v>1488.110208167586</v>
+        <v>1308.385926159716</v>
       </c>
       <c r="W35" t="n">
-        <v>1091.718858467933</v>
+        <v>1308.385926159716</v>
       </c>
       <c r="X35" t="n">
-        <v>862.0976267974665</v>
+        <v>1308.385926159716</v>
       </c>
       <c r="Y35" t="n">
-        <v>456.7603567523568</v>
+        <v>903.0486561146067</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K36" t="n">
         <v>772.8420314050604</v>
@@ -7028,16 +7028,16 @@
         <v>772.8420314050604</v>
       </c>
       <c r="N36" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O36" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P36" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7055,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>349.7786697456642</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="C37" t="n">
-        <v>177.8061066245802</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="D37" t="n">
-        <v>177.8061066245802</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E37" t="n">
-        <v>177.8061066245802</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K37" t="n">
         <v>76.20565529896515</v>
@@ -7125,22 +7125,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U37" t="n">
-        <v>1565.415174541641</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V37" t="n">
-        <v>1283.70370714967</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W37" t="n">
-        <v>1008.851303322183</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X37" t="n">
-        <v>766.2874067679878</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y37" t="n">
-        <v>539.9446384577299</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1433.879624209084</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C38" t="n">
-        <v>1311.305734938569</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D38" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E38" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M38" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N38" t="n">
-        <v>815.1719019525202</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O38" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P38" t="n">
         <v>1271.957808655251</v>
@@ -7201,25 +7201,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X38" t="n">
-        <v>1433.879624209084</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y38" t="n">
-        <v>1433.879624209084</v>
+        <v>887.1053432625264</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>493.6978991635576</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M39" t="n">
-        <v>493.6978991635576</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N39" t="n">
-        <v>493.6978991635576</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O39" t="n">
-        <v>932.0278096358751</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P39" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.093114985063</v>
+        <v>218.0157418826706</v>
       </c>
       <c r="C40" t="n">
-        <v>948.1205518639796</v>
+        <v>218.0157418826706</v>
       </c>
       <c r="D40" t="n">
-        <v>784.8037789907503</v>
+        <v>218.0157418826706</v>
       </c>
       <c r="E40" t="n">
-        <v>618.5955731436038</v>
+        <v>218.0157418826706</v>
       </c>
       <c r="F40" t="n">
-        <v>446.7337989181643</v>
+        <v>46.15396765723105</v>
       </c>
       <c r="G40" t="n">
-        <v>280.4768292123964</v>
+        <v>46.15396765723105</v>
       </c>
       <c r="H40" t="n">
-        <v>136.6805607205508</v>
+        <v>46.15396765723105</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
         <v>94.40332068498475</v>
@@ -7341,16 +7341,16 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.57215219891</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878673</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7359,25 +7359,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U40" t="n">
-        <v>1565.415174541641</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V40" t="n">
-        <v>1283.70370714967</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W40" t="n">
-        <v>1283.70370714967</v>
+        <v>877.0883754591891</v>
       </c>
       <c r="X40" t="n">
-        <v>1283.70370714967</v>
+        <v>634.5244789049942</v>
       </c>
       <c r="Y40" t="n">
-        <v>1283.70370714967</v>
+        <v>408.1817105947363</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>739.1194333973433</v>
+        <v>870.7932875125664</v>
       </c>
       <c r="C41" t="n">
-        <v>739.1194333973433</v>
+        <v>443.8925575258665</v>
       </c>
       <c r="D41" t="n">
-        <v>739.1194333973433</v>
+        <v>443.8925575258665</v>
       </c>
       <c r="E41" t="n">
-        <v>739.1194333973433</v>
+        <v>443.8925575258665</v>
       </c>
       <c r="F41" t="n">
-        <v>739.1194333973433</v>
+        <v>443.8925575258665</v>
       </c>
       <c r="G41" t="n">
-        <v>334.7803709867919</v>
+        <v>39.55349511531512</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>39.55349511531512</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M41" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N41" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O41" t="n">
-        <v>856.3013579804531</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P41" t="n">
-        <v>1313.087264683184</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q41" t="n">
         <v>1728.043288159434</v>
@@ -7441,22 +7441,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U41" t="n">
-        <v>1587.244713637749</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V41" t="n">
-        <v>1229.755298763998</v>
+        <v>1267.18463721222</v>
       </c>
       <c r="W41" t="n">
-        <v>833.3639490643452</v>
+        <v>870.7932875125664</v>
       </c>
       <c r="X41" t="n">
-        <v>833.3639490643452</v>
+        <v>870.7932875125664</v>
       </c>
       <c r="Y41" t="n">
-        <v>833.3639490643452</v>
+        <v>870.7932875125664</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M42" t="n">
-        <v>772.8420314050604</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N42" t="n">
-        <v>772.8420314050604</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O42" t="n">
-        <v>850.0084995511719</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P42" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q42" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>380.7463298073503</v>
+        <v>178.8681710448944</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7737666862663</v>
+        <v>178.8681710448944</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7737666862663</v>
+        <v>178.8681710448944</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7737666862663</v>
+        <v>178.8681710448944</v>
       </c>
       <c r="F43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K43" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L43" t="n">
-        <v>430.8949765933859</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M43" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N43" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O43" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P43" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
@@ -7596,25 +7596,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T43" t="n">
-        <v>1602.260275267236</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U43" t="n">
-        <v>1322.075826767541</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V43" t="n">
-        <v>1040.36435937557</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W43" t="n">
-        <v>1039.818963383869</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X43" t="n">
-        <v>797.255066829674</v>
+        <v>595.376908067218</v>
       </c>
       <c r="Y43" t="n">
-        <v>570.912298519416</v>
+        <v>369.03413975696</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>588.4348144731205</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C44" t="n">
-        <v>588.4348144731205</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D44" t="n">
-        <v>588.4348144731205</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E44" t="n">
-        <v>588.4348144731205</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F44" t="n">
-        <v>438.8681156485927</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G44" t="n">
-        <v>36.27616607839228</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H44" t="n">
-        <v>36.27616607839228</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>68.08893453872679</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>184.2963411149083</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7061291250302</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>598.9981372303106</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M44" t="n">
-        <v>862.6140377103484</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N44" t="n">
-        <v>1131.245262923652</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O44" t="n">
-        <v>1382.739131455147</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P44" t="n">
-        <v>1591.77691709091</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q44" t="n">
-        <v>1740.92751718922</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
-        <v>1813.808303919614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1813.808303919614</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>1600.530719422884</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U44" t="n">
-        <v>1342.315579046524</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V44" t="n">
-        <v>984.8261641727736</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W44" t="n">
-        <v>588.4348144731205</v>
+        <v>508.071083982119</v>
       </c>
       <c r="X44" t="n">
-        <v>588.4348144731205</v>
+        <v>508.071083982119</v>
       </c>
       <c r="Y44" t="n">
-        <v>588.4348144731205</v>
+        <v>102.7338139370094</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>593.4367873432377</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>475.9308838607425</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>372.0909253760275</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>267.3889916489647</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>173.7431613318689</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>80.62417733004349</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.27616607839228</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>75.26691519968659</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>433.5238427951067</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>559.2924683663467</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>735.9313191969957</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M45" t="n">
-        <v>945.2060176780107</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N45" t="n">
-        <v>1162.360999510327</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O45" t="n">
-        <v>1357.404666497813</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P45" t="n">
-        <v>1580.474417479231</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1674.905125453737</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
-        <v>1813.808303919614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1749.847329510331</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1611.735244555135</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
-        <v>1427.028547670862</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>1222.055408810128</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1025.534031643345</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>862.0566854100081</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>722.3637967633005</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1088.137999643809</v>
+        <v>781.8635821582118</v>
       </c>
       <c r="C46" t="n">
-        <v>916.1654365227246</v>
+        <v>781.8635821582118</v>
       </c>
       <c r="D46" t="n">
-        <v>752.8486636494953</v>
+        <v>618.5468092849825</v>
       </c>
       <c r="E46" t="n">
-        <v>586.6404578023488</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F46" t="n">
-        <v>414.7786835769092</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G46" t="n">
-        <v>249.3054085448152</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H46" t="n">
-        <v>112.4768981516335</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I46" t="n">
-        <v>36.27616607839228</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>148.0721041840598</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>463.838861142204</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>912.7564163623085</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>1055.701197344776</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N46" t="n">
-        <v>1152.699903436724</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1238.993031259049</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
-        <v>1622.490343973492</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
-        <v>1813.808303919614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1802.007452933977</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.530066266137</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.530066266137</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U46" t="n">
-        <v>1645.530066266137</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V46" t="n">
-        <v>1645.530066266137</v>
+        <v>1393.753108168501</v>
       </c>
       <c r="W46" t="n">
-        <v>1645.530066266137</v>
+        <v>1118.900704341014</v>
       </c>
       <c r="X46" t="n">
-        <v>1504.646736666132</v>
+        <v>1118.900704341014</v>
       </c>
       <c r="Y46" t="n">
-        <v>1278.303968355874</v>
+        <v>972.0295508702775</v>
       </c>
     </row>
   </sheetData>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.36778926601718</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
@@ -9418,13 +9418,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>45.52319159066195</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.75137994945574</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>42.98047967522712</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9485,7 +9485,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>30.46291649466021</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>31.11971950265287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>29.71867098525932</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.77776316131311</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>29.54546524055892</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>30.52326967191647</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N22" t="n">
-        <v>28.69673075603104</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O22" t="n">
-        <v>30.4470172788551</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
         <v>22.38080065798648</v>
@@ -9643,7 +9643,7 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>458.1670431142371</v>
+        <v>115.5109099618853</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
@@ -9655,13 +9655,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,19 +9722,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>100.4610141345442</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>484.1469440493127</v>
@@ -9798,19 +9798,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>271.0481665010504</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
@@ -9886,16 +9886,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>456.4271212953047</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P26" t="n">
-        <v>457.4303624918454</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,22 +9956,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>100.4610141345442</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385612</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q27" t="n">
         <v>484.1469440493127</v>
@@ -10038,13 +10038,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>62.78265149768123</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>84.64530730648401</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10114,19 +10114,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M29" t="n">
-        <v>498.831168659766</v>
+        <v>480.8962504457604</v>
       </c>
       <c r="N29" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>480.8559469023526</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
@@ -10193,19 +10193,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>100.4610141345442</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738758</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068834</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10214,7 +10214,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>232.5722561371962</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M31" t="n">
-        <v>42.23240770727544</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10351,22 +10351,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>455.6196014764234</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738758</v>
+        <v>106.8108172115448</v>
       </c>
       <c r="O33" t="n">
-        <v>101.1178171425369</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
         <v>484.1469440493127</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10521,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>64.10934918660844</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>455.6196014764234</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10676,13 +10676,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738758</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O36" t="n">
-        <v>101.1178171425369</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
         <v>484.1469440493127</v>
@@ -10746,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608414</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10825,7 +10825,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>455.6196014764234</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
@@ -10837,10 +10837,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>465.9293750477955</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q39" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,10 +10989,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N40" t="n">
-        <v>26.57325859521331</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
@@ -11074,13 +11074,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>498.9752675705654</v>
+        <v>456.7228602710902</v>
       </c>
       <c r="Q41" t="n">
-        <v>455.2721730654567</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11144,25 +11144,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>183.8904958969891</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>101.1178171425368</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>60.65522297608414</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>291.5984102914562</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>70.37539003541903</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11460,16 +11460,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>360.0219516362448</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>45.34488222711981</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23977,7 +23977,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>413.7693406731904</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24025,13 +24025,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>247.8235305291212</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>346.9140722544097</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>384.4796064222259</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24107,16 +24107,16 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V21" t="n">
-        <v>194.9755776916957</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>186.6083336146843</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>153.8947429905731</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>131.2955112896372</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.2638605543417</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>162.3050077094425</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>156.5982940082443</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24189,7 +24189,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>264.1560500087814</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24220,13 +24220,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>66.7804102125383</v>
+        <v>159.9621472794445</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>29.93882636149638</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>155.744190570948</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24457,13 +24457,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>138.6357659143549</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>164.9235706279996</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>194.1036453304596</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.589164089677</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>290.5666312933035</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24733,16 +24733,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>17.96218057810444</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>43.70897614033522</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>6.235976675401531</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>251.073916821459</v>
       </c>
       <c r="X32" t="n">
-        <v>236.0449929785566</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>141.8592462744834</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>107.5634614771283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25168,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>45.96973682815162</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>180.2777794901685</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>101.3111002675547</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>30.65798346106922</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25365,7 +25365,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>301.2835723090229</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>30.18585710459223</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.28982278198481</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>89.62132713268652</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.3478101382829</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>31.93281491602001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29.60653968495825</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>271.5639377574283</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>350.4862773871939</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25876,16 +25876,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>272.8019081562112</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>277.176001558223</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.5909258267186</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3402845023203</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>100.6637612846482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>78.67689869112667</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67866.07939016857</v>
+        <v>60870.09540019948</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>467011.9533474444</v>
+        <v>467011.9533474446</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>467011.9533474445</v>
+        <v>467011.9533474444</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>467011.9533474444</v>
+        <v>467011.9533474445</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>431594.431609436</v>
+        <v>467011.9533474444</v>
       </c>
     </row>
   </sheetData>
@@ -26328,10 +26328,10 @@
         <v>14726.63598391922</v>
       </c>
       <c r="G2" t="n">
-        <v>14726.63598391923</v>
+        <v>14726.63598391922</v>
       </c>
       <c r="H2" t="n">
-        <v>16415.34157912049</v>
+        <v>14726.63598391922</v>
       </c>
       <c r="I2" t="n">
         <v>112762.0272804593</v>
@@ -26340,7 +26340,7 @@
         <v>112762.0272804593</v>
       </c>
       <c r="K2" t="n">
-        <v>112762.0272804593</v>
+        <v>112762.0272804592</v>
       </c>
       <c r="L2" t="n">
         <v>112762.0272804593</v>
@@ -26352,10 +26352,10 @@
         <v>112762.0272804593</v>
       </c>
       <c r="O2" t="n">
-        <v>112762.0272804592</v>
+        <v>112762.0272804593</v>
       </c>
       <c r="P2" t="n">
-        <v>115326.9619906378</v>
+        <v>112762.0272804593</v>
       </c>
     </row>
     <row r="3">
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2144.396005228214</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>120582.4294966519</v>
+        <v>122695.9243396938</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>286362.9930027069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="C4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="D4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="E4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="F4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="G4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="H4" t="n">
-        <v>7683.385572696362</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="I4" t="n">
-        <v>53951.29027979783</v>
+        <v>53951.29027979782</v>
       </c>
       <c r="J4" t="n">
         <v>53951.29027979783</v>
       </c>
       <c r="K4" t="n">
+        <v>53951.29027979783</v>
+      </c>
+      <c r="L4" t="n">
+        <v>53951.29027979783</v>
+      </c>
+      <c r="M4" t="n">
+        <v>53951.29027979783</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53951.29027979783</v>
+      </c>
+      <c r="O4" t="n">
         <v>53951.29027979782</v>
       </c>
-      <c r="L4" t="n">
-        <v>53951.29027979782</v>
-      </c>
-      <c r="M4" t="n">
-        <v>53951.29027979782</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53951.29027979782</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>53951.29027979783</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9122.115965165323</v>
       </c>
     </row>
     <row r="5">
@@ -26487,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>483.2280506501836</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>36949.30081304155</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090251</v>
+        <v>6496.276761288469</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090251</v>
+        <v>6496.276761288469</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090253</v>
+        <v>6496.276761288471</v>
       </c>
       <c r="H6" t="n">
-        <v>6104.331950545733</v>
+        <v>6496.276761288471</v>
       </c>
       <c r="I6" t="n">
-        <v>-89824.80676621875</v>
+        <v>-92642.6614307522</v>
       </c>
       <c r="J6" t="n">
-        <v>30757.62273043313</v>
+        <v>30053.26290894164</v>
       </c>
       <c r="K6" t="n">
-        <v>30757.62273043313</v>
+        <v>30053.26290894158</v>
       </c>
       <c r="L6" t="n">
-        <v>30757.62273043313</v>
+        <v>30053.26290894161</v>
       </c>
       <c r="M6" t="n">
-        <v>30757.62273043316</v>
+        <v>30053.26290894162</v>
       </c>
       <c r="N6" t="n">
-        <v>30757.62273043314</v>
+        <v>30053.26290894161</v>
       </c>
       <c r="O6" t="n">
-        <v>30757.6227304331</v>
+        <v>30053.26290894162</v>
       </c>
       <c r="P6" t="n">
-        <v>-217107.447790276</v>
+        <v>30053.26290894165</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>430.248375846946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>453.4520759799035</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>430.248375846946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>453.4520759799035</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.72964171194752</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>17.71369318248255</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.68201209985685</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.801178249406</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0169119161446</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>272.9504344581586</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>303.7099502530053</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>308.6242947670762</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>291.425169993898</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>248.7246402301936</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7818464210729</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.6496061881235</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.41421051100416</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>7.571506594050274</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1383713369558016</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9254399027651292</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>8.937801166179012</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>31.86273349432572</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>87.43377607659497</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>149.4382495618586</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>200.9381683613497</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>234.4853648365855</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>240.6914947108307</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>220.1856947600876</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>176.7184319587202</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>118.1315917985804</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.45845291027708</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>17.18964029916807</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.730172239654182</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06088420412928484</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7758577269371157</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>6.89808051767727</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.332157824618</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54.85314129445408</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>90.14056136596669</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>115.3488842393599</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>121.6192253234244</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>118.727391977568</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>109.6639630765298</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>93.83646544701257</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.96750475288884</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.88538470391794</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>13.521084204895</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.315028469640402</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04231951237838818</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36138,13 +36138,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.626705344857696</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1048437671689706</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.626705344857699</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>7.947829780430652</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L23" t="n">
-        <v>419.8550006816141</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36518,19 +36518,19 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>248.4727266095646</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O25" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>293.5345574968697</v>
@@ -36597,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36606,16 +36606,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P26" t="n">
-        <v>419.8550006816141</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36676,25 +36676,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>77.94592742031445</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36758,13 +36758,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>358.2720417115361</v>
+        <v>40.86389160198001</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>63.89640633088362</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603341</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>228.8157587937749</v>
+        <v>211.6076016844843</v>
       </c>
       <c r="L31" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>19.65696781578962</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37071,22 +37071,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603341</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="O33" t="n">
-        <v>77.94592742031473</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37241,13 +37241,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O34" t="n">
-        <v>41.61016168818399</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37387,7 +37387,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O36" t="n">
-        <v>77.94592742031473</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37545,7 +37545,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,10 +37709,10 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N40" t="n">
-        <v>5.824357619612921</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>461.3999057603341</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="Q41" t="n">
-        <v>419.1474984608586</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37861,28 +37861,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>269.6796503957549</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>32.13410955589335</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.3812187638195</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>184.2523111213353</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>234.6383920255356</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>266.2786873535734</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>271.3446719326302</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>254.0342106378739</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P44" t="n">
-        <v>211.1492784199623</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.6571718164749</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>73.61695629332706</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>39.38459507201445</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>361.8756844398183</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>127.0390157285253</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
-        <v>178.4230816471201</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M45" t="n">
-        <v>211.3885843242576</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>219.3484664972891</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>197.0138050378653</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>225.3229807893105</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.38455350960186</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
-        <v>140.3062408746237</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>112.9251900057248</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>318.9563201597416</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>453.4520759799035</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>144.3886676590584</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>97.97849100196758</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O46" t="n">
-        <v>87.16477557810536</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>387.3710229438823</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.2504645920423</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
